--- a/easy project/疫情+可视化/country_data.xlsx
+++ b/easy project/疫情+可视化/country_data.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F183"/>
+  <dimension ref="A1:F184"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,727 +388,727 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>美国</t>
+          <t>中国</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5796727</v>
+        <v>90182</v>
       </c>
       <c r="C2" t="n">
-        <v>3127418</v>
+        <v>84446</v>
       </c>
       <c r="D2" t="n">
-        <v>0.54</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>179200</v>
+        <v>4718</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0309</v>
+        <v>0.0523</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>巴西</t>
+          <t>美国</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3532330</v>
+        <v>5913229</v>
       </c>
       <c r="C3" t="n">
-        <v>2879361</v>
+        <v>3207612</v>
       </c>
       <c r="D3" t="n">
-        <v>0.82</v>
+        <v>0.54</v>
       </c>
       <c r="E3" t="n">
-        <v>113358</v>
+        <v>181059</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0321</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>印度</t>
+          <t>巴西</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2975701</v>
+        <v>3622861</v>
       </c>
       <c r="C4" t="n">
-        <v>2222577</v>
+        <v>2976256</v>
       </c>
       <c r="D4" t="n">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="E4" t="n">
-        <v>55794</v>
+        <v>115309</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0187</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>俄罗斯</t>
+          <t>印度</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>949531</v>
+        <v>3106348</v>
       </c>
       <c r="C5" t="n">
-        <v>765754</v>
+        <v>2338035</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="E5" t="n">
-        <v>16268</v>
+        <v>57542</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0171</v>
+        <v>0.0185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>南非</t>
+          <t>俄罗斯</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>603338</v>
+        <v>959016</v>
       </c>
       <c r="C6" t="n">
-        <v>500102</v>
+        <v>771357</v>
       </c>
       <c r="D6" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E6" t="n">
-        <v>12843</v>
+        <v>16406</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0213</v>
+        <v>0.0171</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>秘鲁</t>
+          <t>南非</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>576067</v>
+        <v>611450</v>
       </c>
       <c r="C7" t="n">
-        <v>380730</v>
+        <v>516494</v>
       </c>
       <c r="D7" t="n">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="E7" t="n">
-        <v>27245</v>
+        <v>13159</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0473</v>
+        <v>0.0215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>墨西哥</t>
+          <t>秘鲁</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>549734</v>
+        <v>594326</v>
       </c>
       <c r="C8" t="n">
-        <v>448344</v>
+        <v>399357</v>
       </c>
       <c r="D8" t="n">
-        <v>0.82</v>
+        <v>0.67</v>
       </c>
       <c r="E8" t="n">
-        <v>59610</v>
+        <v>27663</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1084</v>
+        <v>0.0465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>哥伦比亚</t>
+          <t>墨西哥</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>522138</v>
+        <v>560164</v>
       </c>
       <c r="C9" t="n">
-        <v>348940</v>
+        <v>458123</v>
       </c>
       <c r="D9" t="n">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="E9" t="n">
-        <v>16568</v>
+        <v>60480</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0317</v>
+        <v>0.108</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>西班牙</t>
+          <t>哥伦比亚</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>407879</v>
+        <v>541139</v>
       </c>
       <c r="C10" t="n">
-        <v>196958</v>
+        <v>374024</v>
       </c>
       <c r="D10" t="n">
-        <v>0.48</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>28838</v>
+        <v>17316</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0707</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>智利</t>
+          <t>西班牙</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>395708</v>
+        <v>420809</v>
       </c>
       <c r="C11" t="n">
-        <v>369730</v>
+        <v>196958</v>
       </c>
       <c r="D11" t="n">
-        <v>0.93</v>
+        <v>0.47</v>
       </c>
       <c r="E11" t="n">
-        <v>10792</v>
+        <v>28872</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0273</v>
+        <v>0.06859999999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>伊朗</t>
+          <t>智利</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>356792</v>
+        <v>399568</v>
       </c>
       <c r="C12" t="n">
-        <v>307702</v>
+        <v>372464</v>
       </c>
       <c r="D12" t="n">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="E12" t="n">
-        <v>20502</v>
+        <v>10916</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0575</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>阿根廷</t>
+          <t>伊朗</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>329043</v>
+        <v>361150</v>
       </c>
       <c r="C13" t="n">
-        <v>239806</v>
+        <v>311365</v>
       </c>
       <c r="D13" t="n">
-        <v>0.73</v>
+        <v>0.86</v>
       </c>
       <c r="E13" t="n">
-        <v>6730</v>
+        <v>20776</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0205</v>
+        <v>0.0575</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>英国</t>
+          <t>阿根廷</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325240</v>
+        <v>350867</v>
       </c>
       <c r="C14" t="n">
-        <v>1544</v>
+        <v>256789</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="E14" t="n">
-        <v>41491</v>
+        <v>7366</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1276</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>沙特阿拉伯</t>
+          <t>英国</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>306370</v>
+        <v>328617</v>
       </c>
       <c r="C15" t="n">
-        <v>278441</v>
+        <v>1549</v>
       </c>
       <c r="D15" t="n">
-        <v>0.91</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>3619</v>
+        <v>41519</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0118</v>
+        <v>0.1263</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>孟加拉</t>
+          <t>沙特阿拉伯</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>292625</v>
+        <v>308654</v>
       </c>
       <c r="C16" t="n">
-        <v>175567</v>
+        <v>282888</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6</v>
+        <v>0.92</v>
       </c>
       <c r="E16" t="n">
-        <v>3907</v>
+        <v>3691</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0134</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>巴基斯坦</t>
+          <t>孟加拉</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>292174</v>
+        <v>297083</v>
       </c>
       <c r="C17" t="n">
-        <v>275317</v>
+        <v>182875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="E17" t="n">
-        <v>6231</v>
+        <v>3983</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0213</v>
+        <v>0.0134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>法国</t>
+          <t>巴基斯坦</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>271960</v>
+        <v>293261</v>
       </c>
       <c r="C18" t="n">
-        <v>84981</v>
+        <v>276829</v>
       </c>
       <c r="D18" t="n">
-        <v>0.31</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>30508</v>
+        <v>6244</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1122</v>
+        <v>0.0213</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>意大利</t>
+          <t>法国</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>257065</v>
+        <v>282414</v>
       </c>
       <c r="C19" t="n">
-        <v>204960</v>
+        <v>85352</v>
       </c>
       <c r="D19" t="n">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="E19" t="n">
-        <v>35427</v>
+        <v>30533</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1378</v>
+        <v>0.1081</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>土耳其</t>
+          <t>意大利</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>255723</v>
+        <v>260298</v>
       </c>
       <c r="C20" t="n">
-        <v>235569</v>
+        <v>205662</v>
       </c>
       <c r="D20" t="n">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
       <c r="E20" t="n">
-        <v>6080</v>
+        <v>35441</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0238</v>
+        <v>0.1362</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>土耳其</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>233353</v>
+        <v>259692</v>
       </c>
       <c r="C21" t="n">
-        <v>207568</v>
+        <v>237908</v>
       </c>
       <c r="D21" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="E21" t="n">
-        <v>9272</v>
+        <v>6139</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0397</v>
+        <v>0.0236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>伊拉克</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>201050</v>
+        <v>236122</v>
       </c>
       <c r="C22" t="n">
-        <v>143393</v>
+        <v>208653</v>
       </c>
       <c r="D22" t="n">
-        <v>0.71</v>
+        <v>0.88</v>
       </c>
       <c r="E22" t="n">
-        <v>6353</v>
+        <v>9276</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0316</v>
+        <v>0.0393</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>菲律宾</t>
+          <t>伊拉克</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>187249</v>
+        <v>204341</v>
       </c>
       <c r="C23" t="n">
-        <v>114921</v>
+        <v>146409</v>
       </c>
       <c r="D23" t="n">
-        <v>0.61</v>
+        <v>0.72</v>
       </c>
       <c r="E23" t="n">
-        <v>2966</v>
+        <v>6428</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0158</v>
+        <v>0.0315</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>印度尼西亚</t>
+          <t>菲律宾</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>151498</v>
+        <v>194252</v>
       </c>
       <c r="C24" t="n">
-        <v>105198</v>
+        <v>132042</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.68</v>
       </c>
       <c r="E24" t="n">
-        <v>6594</v>
+        <v>3010</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0435</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>加拿大</t>
+          <t>印度尼西亚</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>126350</v>
+        <v>155412</v>
       </c>
       <c r="C25" t="n">
-        <v>112423</v>
+        <v>111060</v>
       </c>
       <c r="D25" t="n">
-        <v>0.89</v>
+        <v>0.71</v>
       </c>
       <c r="E25" t="n">
-        <v>9110</v>
+        <v>6759</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0721</v>
+        <v>0.0435</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>卡塔尔</t>
+          <t>加拿大</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>116765</v>
+        <v>127313</v>
       </c>
       <c r="C26" t="n">
-        <v>113531</v>
+        <v>113268</v>
       </c>
       <c r="D26" t="n">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="E26" t="n">
-        <v>193</v>
+        <v>9128</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0017</v>
+        <v>0.0717</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>玻利维亚</t>
+          <t>卡塔尔</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>107435</v>
+        <v>117266</v>
       </c>
       <c r="C27" t="n">
-        <v>42141</v>
+        <v>114099</v>
       </c>
       <c r="D27" t="n">
-        <v>0.39</v>
+        <v>0.97</v>
       </c>
       <c r="E27" t="n">
-        <v>4366</v>
+        <v>194</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0406</v>
+        <v>0.0017</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>厄瓜多尔</t>
+          <t>乌克兰</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106481</v>
+        <v>109234</v>
       </c>
       <c r="C28" t="n">
-        <v>87730</v>
+        <v>54262</v>
       </c>
       <c r="D28" t="n">
-        <v>0.82</v>
+        <v>0.5</v>
       </c>
       <c r="E28" t="n">
-        <v>6248</v>
+        <v>2335</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0587</v>
+        <v>0.0214</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>乌克兰</t>
+          <t>玻利维亚</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>105337</v>
+        <v>109149</v>
       </c>
       <c r="C29" t="n">
-        <v>53458</v>
+        <v>45396</v>
       </c>
       <c r="D29" t="n">
-        <v>0.51</v>
+        <v>0.42</v>
       </c>
       <c r="E29" t="n">
-        <v>2286</v>
+        <v>4509</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0217</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>哈萨克斯坦</t>
+          <t>厄瓜多尔</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>104313</v>
+        <v>108289</v>
       </c>
       <c r="C30" t="n">
-        <v>89712</v>
+        <v>94878</v>
       </c>
       <c r="D30" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="E30" t="n">
-        <v>1415</v>
+        <v>6322</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0136</v>
+        <v>0.0584</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>以色列</t>
+          <t>哈萨克斯坦</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>100716</v>
+        <v>104718</v>
       </c>
       <c r="C31" t="n">
-        <v>77785</v>
+        <v>92598</v>
       </c>
       <c r="D31" t="n">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="E31" t="n">
-        <v>809</v>
+        <v>1415</v>
       </c>
       <c r="F31" t="n">
-        <v>0.008</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>埃及</t>
+          <t>以色列</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>97148</v>
+        <v>104472</v>
       </c>
       <c r="C32" t="n">
-        <v>64318</v>
+        <v>81642</v>
       </c>
       <c r="D32" t="n">
-        <v>0.66</v>
+        <v>0.78</v>
       </c>
       <c r="E32" t="n">
-        <v>5231</v>
+        <v>847</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0538</v>
+        <v>0.0081</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>多米尼加</t>
+          <t>埃及</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>90561</v>
+        <v>97478</v>
       </c>
       <c r="C33" t="n">
-        <v>59949</v>
+        <v>66817</v>
       </c>
       <c r="D33" t="n">
-        <v>0.66</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>1554</v>
+        <v>5280</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0172</v>
+        <v>0.0542</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>瑞典</t>
+          <t>多米尼加</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>86068</v>
+        <v>91608</v>
       </c>
       <c r="C34" t="n">
-        <v>4971</v>
+        <v>61558</v>
       </c>
       <c r="D34" t="n">
-        <v>0.06</v>
+        <v>0.67</v>
       </c>
       <c r="E34" t="n">
-        <v>5810</v>
+        <v>1573</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0675</v>
+        <v>0.0172</v>
       </c>
     </row>
     <row r="35">
@@ -1118,327 +1118,327 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>84392</v>
+        <v>87485</v>
       </c>
       <c r="C35" t="n">
-        <v>59722</v>
+        <v>62185</v>
       </c>
       <c r="D35" t="n">
         <v>0.71</v>
       </c>
       <c r="E35" t="n">
-        <v>1859</v>
+        <v>1906</v>
       </c>
       <c r="F35" t="n">
-        <v>0.022</v>
+        <v>0.0218</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>阿曼</t>
+          <t>瑞典</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>83769</v>
+        <v>86721</v>
       </c>
       <c r="C36" t="n">
-        <v>78386</v>
+        <v>4971</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.06</v>
       </c>
       <c r="E36" t="n">
-        <v>609</v>
+        <v>5813</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0073</v>
+        <v>0.067</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>比利时</t>
+          <t>阿曼</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>80894</v>
+        <v>84509</v>
       </c>
       <c r="C37" t="n">
-        <v>18165</v>
+        <v>78912</v>
       </c>
       <c r="D37" t="n">
-        <v>0.22</v>
+        <v>0.93</v>
       </c>
       <c r="E37" t="n">
-        <v>9985</v>
+        <v>637</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1234</v>
+        <v>0.0075</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>科威特</t>
+          <t>比利时</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>79957</v>
+        <v>81936</v>
       </c>
       <c r="C38" t="n">
-        <v>71770</v>
+        <v>18225</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9</v>
+        <v>0.22</v>
       </c>
       <c r="E38" t="n">
-        <v>513</v>
+        <v>9992</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0064</v>
+        <v>0.1219</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>罗马尼亚</t>
+          <t>科威特</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>77544</v>
+        <v>80960</v>
       </c>
       <c r="C39" t="n">
-        <v>35079</v>
+        <v>72925</v>
       </c>
       <c r="D39" t="n">
-        <v>0.45</v>
+        <v>0.9</v>
       </c>
       <c r="E39" t="n">
-        <v>3233</v>
+        <v>518</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0417</v>
+        <v>0.0064</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>白俄罗斯</t>
+          <t>罗马尼亚</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>70285</v>
+        <v>79330</v>
       </c>
       <c r="C40" t="n">
-        <v>68577</v>
+        <v>35517</v>
       </c>
       <c r="D40" t="n">
-        <v>0.98</v>
+        <v>0.45</v>
       </c>
       <c r="E40" t="n">
-        <v>637</v>
+        <v>3309</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0091</v>
+        <v>0.0417</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>荷兰</t>
+          <t>白俄罗斯</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>67964</v>
+        <v>70645</v>
       </c>
       <c r="C41" t="n">
-        <v>600</v>
+        <v>68925</v>
       </c>
       <c r="D41" t="n">
-        <v>0.01</v>
+        <v>0.98</v>
       </c>
       <c r="E41" t="n">
-        <v>6224</v>
+        <v>646</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0916</v>
+        <v>0.0091</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>危地马拉</t>
+          <t>荷兰</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>67856</v>
+        <v>69148</v>
       </c>
       <c r="C42" t="n">
-        <v>56277</v>
+        <v>643</v>
       </c>
       <c r="D42" t="n">
-        <v>0.83</v>
+        <v>0.01</v>
       </c>
       <c r="E42" t="n">
-        <v>2580</v>
+        <v>6227</v>
       </c>
       <c r="F42" t="n">
-        <v>0.038</v>
+        <v>0.0901</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>阿联酋</t>
+          <t>危地马拉</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>66617</v>
+        <v>68533</v>
       </c>
       <c r="C43" t="n">
-        <v>58408</v>
+        <v>57735</v>
       </c>
       <c r="D43" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="E43" t="n">
-        <v>372</v>
+        <v>2611</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0056</v>
+        <v>0.0381</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>日本本土</t>
+          <t>阿联酋</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>61914</v>
+        <v>67282</v>
       </c>
       <c r="C44" t="n">
-        <v>46264</v>
+        <v>58582</v>
       </c>
       <c r="D44" t="n">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="E44" t="n">
-        <v>1179</v>
+        <v>376</v>
       </c>
       <c r="F44" t="n">
-        <v>0.019</v>
+        <v>0.0056</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>波兰</t>
+          <t>日本本土</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>61181</v>
+        <v>63145</v>
       </c>
       <c r="C45" t="n">
-        <v>41661</v>
+        <v>49089</v>
       </c>
       <c r="D45" t="n">
-        <v>0.68</v>
+        <v>0.78</v>
       </c>
       <c r="E45" t="n">
-        <v>1951</v>
+        <v>1201</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0319</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>新加坡</t>
+          <t>波兰</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>56266</v>
+        <v>62310</v>
       </c>
       <c r="C46" t="n">
-        <v>53651</v>
+        <v>42448</v>
       </c>
       <c r="D46" t="n">
-        <v>0.95</v>
+        <v>0.68</v>
       </c>
       <c r="E46" t="n">
-        <v>27</v>
+        <v>1960</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0005</v>
+        <v>0.0315</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>葡萄牙</t>
+          <t>新加坡</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>55452</v>
+        <v>56404</v>
       </c>
       <c r="C47" t="n">
-        <v>40652</v>
+        <v>54587</v>
       </c>
       <c r="D47" t="n">
-        <v>0.73</v>
+        <v>0.97</v>
       </c>
       <c r="E47" t="n">
-        <v>1794</v>
+        <v>27</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0324</v>
+        <v>0.0005</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>洪都拉斯</t>
+          <t>葡萄牙</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>53381</v>
+        <v>55720</v>
       </c>
       <c r="C48" t="n">
-        <v>8271</v>
+        <v>40880</v>
       </c>
       <c r="D48" t="n">
-        <v>0.15</v>
+        <v>0.73</v>
       </c>
       <c r="E48" t="n">
-        <v>1632</v>
+        <v>1801</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0306</v>
+        <v>0.0323</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>尼日利亚</t>
+          <t>洪都拉斯</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>51304</v>
+        <v>54511</v>
       </c>
       <c r="C49" t="n">
-        <v>37885</v>
+        <v>8532</v>
       </c>
       <c r="D49" t="n">
-        <v>0.74</v>
+        <v>0.16</v>
       </c>
       <c r="E49" t="n">
-        <v>996</v>
+        <v>1654</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0194</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="50">
@@ -1448,283 +1448,283 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>49247</v>
+        <v>53252</v>
       </c>
       <c r="C50" t="n">
-        <v>34199</v>
+        <v>37478</v>
       </c>
       <c r="D50" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E50" t="n">
-        <v>817</v>
+        <v>920</v>
       </c>
       <c r="F50" t="n">
-        <v>0.0166</v>
+        <v>0.0173</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>巴林</t>
+          <t>尼日利亚</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>48661</v>
+        <v>52548</v>
       </c>
       <c r="C51" t="n">
-        <v>45166</v>
+        <v>39257</v>
       </c>
       <c r="D51" t="n">
-        <v>0.93</v>
+        <v>0.75</v>
       </c>
       <c r="E51" t="n">
-        <v>183</v>
+        <v>1004</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0038</v>
+        <v>0.0191</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>加纳</t>
+          <t>巴林</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>43325</v>
+        <v>49330</v>
       </c>
       <c r="C52" t="n">
-        <v>41408</v>
+        <v>45981</v>
       </c>
       <c r="D52" t="n">
-        <v>0.96</v>
+        <v>0.93</v>
       </c>
       <c r="E52" t="n">
-        <v>261</v>
+        <v>184</v>
       </c>
       <c r="F52" t="n">
-        <v>0.006</v>
+        <v>0.0037</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>吉尔吉斯斯坦</t>
+          <t>加纳</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>42889</v>
+        <v>43622</v>
       </c>
       <c r="C53" t="n">
-        <v>36056</v>
+        <v>41695</v>
       </c>
       <c r="D53" t="n">
-        <v>0.84</v>
+        <v>0.96</v>
       </c>
       <c r="E53" t="n">
-        <v>1055</v>
+        <v>263</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0246</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>亚美尼亚</t>
+          <t>吉尔吉斯斯坦</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>42616</v>
+        <v>43126</v>
       </c>
       <c r="C54" t="n">
-        <v>35907</v>
+        <v>36615</v>
       </c>
       <c r="D54" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="E54" t="n">
-        <v>850</v>
+        <v>1057</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0199</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>阿尔及利亚</t>
+          <t>亚美尼亚</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>40667</v>
+        <v>42825</v>
       </c>
       <c r="C55" t="n">
-        <v>28587</v>
+        <v>36049</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7</v>
+        <v>0.84</v>
       </c>
       <c r="E55" t="n">
-        <v>1418</v>
+        <v>854</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0349</v>
+        <v>0.0199</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>瑞士</t>
+          <t>埃塞俄比亚</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>39627</v>
+        <v>42143</v>
       </c>
       <c r="C56" t="n">
-        <v>33900</v>
+        <v>15262</v>
       </c>
       <c r="D56" t="n">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="E56" t="n">
-        <v>2000</v>
+        <v>692</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0505</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>乌兹别克斯坦</t>
+          <t>阿尔及利亚</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>38412</v>
+        <v>41858</v>
       </c>
       <c r="C57" t="n">
-        <v>34351</v>
+        <v>29369</v>
       </c>
       <c r="D57" t="n">
-        <v>0.89</v>
+        <v>0.7</v>
       </c>
       <c r="E57" t="n">
-        <v>265</v>
+        <v>1446</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0069</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>委内瑞拉</t>
+          <t>瑞士</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>38219</v>
+        <v>40060</v>
       </c>
       <c r="C58" t="n">
-        <v>27306</v>
+        <v>34400</v>
       </c>
       <c r="D58" t="n">
-        <v>0.71</v>
+        <v>0.86</v>
       </c>
       <c r="E58" t="n">
-        <v>317</v>
+        <v>2001</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0083</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>阿富汗</t>
+          <t>委内瑞拉</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>37953</v>
+        <v>39564</v>
       </c>
       <c r="C59" t="n">
-        <v>28016</v>
+        <v>29966</v>
       </c>
       <c r="D59" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="E59" t="n">
-        <v>1385</v>
+        <v>329</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0365</v>
+        <v>0.0083</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>埃塞俄比亚</t>
+          <t>乌兹别克斯坦</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>37665</v>
+        <v>39348</v>
       </c>
       <c r="C60" t="n">
-        <v>13913</v>
+        <v>35551</v>
       </c>
       <c r="D60" t="n">
-        <v>0.37</v>
+        <v>0.9</v>
       </c>
       <c r="E60" t="n">
-        <v>637</v>
+        <v>280</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0169</v>
+        <v>0.0071</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>阿塞拜疆</t>
+          <t>阿富汗</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>35105</v>
+        <v>38054</v>
       </c>
       <c r="C61" t="n">
-        <v>32842</v>
+        <v>28360</v>
       </c>
       <c r="D61" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E61" t="n">
-        <v>515</v>
+        <v>1389</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0147</v>
+        <v>0.0365</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>摩尔多瓦</t>
+          <t>阿塞拜疆</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>33072</v>
+        <v>35426</v>
       </c>
       <c r="C62" t="n">
-        <v>22683</v>
+        <v>33104</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="E62" t="n">
-        <v>935</v>
+        <v>519</v>
       </c>
       <c r="F62" t="n">
-        <v>0.0283</v>
+        <v>0.0147</v>
       </c>
     </row>
     <row r="63">
@@ -1734,41 +1734,41 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>32134</v>
+        <v>34463</v>
       </c>
       <c r="C63" t="n">
-        <v>10159</v>
+        <v>12758</v>
       </c>
       <c r="D63" t="n">
-        <v>0.32</v>
+        <v>0.37</v>
       </c>
       <c r="E63" t="n">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0106</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>肯尼亚</t>
+          <t>摩尔多瓦</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>32118</v>
+        <v>33828</v>
       </c>
       <c r="C64" t="n">
-        <v>18453</v>
+        <v>23570</v>
       </c>
       <c r="D64" t="n">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="E64" t="n">
-        <v>542</v>
+        <v>945</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0169</v>
+        <v>0.0279</v>
       </c>
     </row>
     <row r="65">
@@ -1778,173 +1778,173 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>31117</v>
+        <v>32678</v>
       </c>
       <c r="C65" t="n">
-        <v>18350</v>
+        <v>18806</v>
       </c>
       <c r="D65" t="n">
-        <v>0.59</v>
+        <v>0.58</v>
       </c>
       <c r="E65" t="n">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="F65" t="n">
-        <v>0.0047</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>塞尔维亚</t>
+          <t>肯尼亚</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>30548</v>
+        <v>32557</v>
       </c>
       <c r="C66" t="n">
-        <v>15913</v>
+        <v>18895</v>
       </c>
       <c r="D66" t="n">
-        <v>0.52</v>
+        <v>0.58</v>
       </c>
       <c r="E66" t="n">
-        <v>695</v>
+        <v>554</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0228</v>
+        <v>0.017</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>爱尔兰</t>
+          <t>塞尔维亚</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>27755</v>
+        <v>30714</v>
       </c>
       <c r="C67" t="n">
-        <v>23364</v>
+        <v>15913</v>
       </c>
       <c r="D67" t="n">
-        <v>0.84</v>
+        <v>0.52</v>
       </c>
       <c r="E67" t="n">
-        <v>1776</v>
+        <v>701</v>
       </c>
       <c r="F67" t="n">
-        <v>0.064</v>
+        <v>0.0228</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>奥地利</t>
+          <t>爱尔兰</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>25062</v>
+        <v>28116</v>
       </c>
       <c r="C68" t="n">
-        <v>21406</v>
+        <v>23364</v>
       </c>
       <c r="D68" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="E68" t="n">
-        <v>732</v>
+        <v>1777</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0292</v>
+        <v>0.06320000000000001</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>澳大利亚</t>
+          <t>奥地利</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>24602</v>
+        <v>25495</v>
       </c>
       <c r="C69" t="n">
-        <v>18757</v>
+        <v>21657</v>
       </c>
       <c r="D69" t="n">
-        <v>0.76</v>
+        <v>0.85</v>
       </c>
       <c r="E69" t="n">
-        <v>485</v>
+        <v>733</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0197</v>
+        <v>0.0288</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>萨尔瓦多</t>
+          <t>澳大利亚</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>24420</v>
+        <v>25064</v>
       </c>
       <c r="C70" t="n">
-        <v>12021</v>
+        <v>19601</v>
       </c>
       <c r="D70" t="n">
-        <v>0.49</v>
+        <v>0.78</v>
       </c>
       <c r="E70" t="n">
-        <v>654</v>
+        <v>525</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0268</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>捷克</t>
+          <t>萨尔瓦多</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>21551</v>
+        <v>24811</v>
       </c>
       <c r="C71" t="n">
-        <v>16040</v>
+        <v>12492</v>
       </c>
       <c r="D71" t="n">
-        <v>0.74</v>
+        <v>0.5</v>
       </c>
       <c r="E71" t="n">
-        <v>411</v>
+        <v>669</v>
       </c>
       <c r="F71" t="n">
-        <v>0.0191</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>喀麦隆</t>
+          <t>捷克</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>18762</v>
+        <v>22181</v>
       </c>
       <c r="C72" t="n">
-        <v>16540</v>
+        <v>16376</v>
       </c>
       <c r="D72" t="n">
-        <v>0.88</v>
+        <v>0.74</v>
       </c>
       <c r="E72" t="n">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0217</v>
+        <v>0.0187</v>
       </c>
     </row>
     <row r="73">
@@ -1954,63 +1954,63 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>18476</v>
+        <v>19213</v>
       </c>
       <c r="C73" t="n">
-        <v>11102</v>
+        <v>11870</v>
       </c>
       <c r="D73" t="n">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="E73" t="n">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0066</v>
+        <v>0.0069</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>波黑</t>
+          <t>喀麦隆</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>17715</v>
+        <v>18762</v>
       </c>
       <c r="C74" t="n">
-        <v>11329</v>
+        <v>16540</v>
       </c>
       <c r="D74" t="n">
-        <v>0.64</v>
+        <v>0.88</v>
       </c>
       <c r="E74" t="n">
-        <v>532</v>
+        <v>408</v>
       </c>
       <c r="F74" t="n">
-        <v>0.03</v>
+        <v>0.0217</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>科特迪瓦</t>
+          <t>波黑</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>17310</v>
+        <v>18029</v>
       </c>
       <c r="C75" t="n">
-        <v>14820</v>
+        <v>11861</v>
       </c>
       <c r="D75" t="n">
-        <v>0.86</v>
+        <v>0.66</v>
       </c>
       <c r="E75" t="n">
-        <v>112</v>
+        <v>547</v>
       </c>
       <c r="F75" t="n">
-        <v>0.0065</v>
+        <v>0.0303</v>
       </c>
     </row>
     <row r="76">
@@ -2020,239 +2020,239 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>17002</v>
+        <v>17665</v>
       </c>
       <c r="C76" t="n">
-        <v>14169</v>
+        <v>14219</v>
       </c>
       <c r="D76" t="n">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="E76" t="n">
         <v>309</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0182</v>
+        <v>0.0175</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>丹麦</t>
+          <t>科特迪瓦</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>16637</v>
+        <v>17506</v>
       </c>
       <c r="C77" t="n">
-        <v>14258</v>
+        <v>15633</v>
       </c>
       <c r="D77" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="E77" t="n">
-        <v>622</v>
+        <v>114</v>
       </c>
       <c r="F77" t="n">
-        <v>0.0374</v>
+        <v>0.0065</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>保加利亚</t>
+          <t>丹麦</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>15131</v>
+        <v>16821</v>
       </c>
       <c r="C78" t="n">
-        <v>10282</v>
+        <v>14661</v>
       </c>
       <c r="D78" t="n">
-        <v>0.68</v>
+        <v>0.87</v>
       </c>
       <c r="E78" t="n">
-        <v>539</v>
+        <v>623</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0356</v>
+        <v>0.037</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>马达加斯加</t>
+          <t>保加利亚</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>14277</v>
+        <v>15386</v>
       </c>
       <c r="C79" t="n">
-        <v>13332</v>
+        <v>10497</v>
       </c>
       <c r="D79" t="n">
-        <v>0.93</v>
+        <v>0.68</v>
       </c>
       <c r="E79" t="n">
-        <v>178</v>
+        <v>563</v>
       </c>
       <c r="F79" t="n">
-        <v>0.0125</v>
+        <v>0.0366</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>北马其顿</t>
+          <t>马达加斯加</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>13458</v>
+        <v>14402</v>
       </c>
       <c r="C80" t="n">
-        <v>10052</v>
+        <v>13436</v>
       </c>
       <c r="D80" t="n">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="E80" t="n">
-        <v>563</v>
+        <v>178</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0418</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>塞内加尔</t>
+          <t>北马其顿</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>12850</v>
+        <v>13673</v>
       </c>
       <c r="C81" t="n">
-        <v>8165</v>
+        <v>10150</v>
       </c>
       <c r="D81" t="n">
-        <v>0.64</v>
+        <v>0.74</v>
       </c>
       <c r="E81" t="n">
-        <v>266</v>
+        <v>568</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0207</v>
+        <v>0.0415</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>苏丹</t>
+          <t>巴拉圭</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>12623</v>
+        <v>13233</v>
       </c>
       <c r="C82" t="n">
-        <v>6476</v>
+        <v>7417</v>
       </c>
       <c r="D82" t="n">
-        <v>0.51</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E82" t="n">
-        <v>812</v>
+        <v>205</v>
       </c>
       <c r="F82" t="n">
-        <v>0.0643</v>
+        <v>0.0155</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>巴拉圭</t>
+          <t>黎巴嫩</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>12536</v>
+        <v>13155</v>
       </c>
       <c r="C83" t="n">
-        <v>7007</v>
+        <v>3704</v>
       </c>
       <c r="D83" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="E83" t="n">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="F83" t="n">
-        <v>0.0145</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>黎巴嫩</t>
+          <t>塞内加尔</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>11580</v>
+        <v>13013</v>
       </c>
       <c r="C84" t="n">
-        <v>3204</v>
+        <v>8595</v>
       </c>
       <c r="D84" t="n">
-        <v>0.28</v>
+        <v>0.66</v>
       </c>
       <c r="E84" t="n">
-        <v>116</v>
+        <v>272</v>
       </c>
       <c r="F84" t="n">
-        <v>0.01</v>
+        <v>0.0209</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>赞比亚</t>
+          <t>苏丹</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>10627</v>
+        <v>12903</v>
       </c>
       <c r="C85" t="n">
-        <v>9126</v>
+        <v>6538</v>
       </c>
       <c r="D85" t="n">
-        <v>0.86</v>
+        <v>0.51</v>
       </c>
       <c r="E85" t="n">
-        <v>277</v>
+        <v>818</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0261</v>
+        <v>0.0634</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>挪威</t>
+          <t>赞比亚</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>10275</v>
+        <v>11148</v>
       </c>
       <c r="C86" t="n">
-        <v>9150</v>
+        <v>10208</v>
       </c>
       <c r="D86" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="E86" t="n">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="F86" t="n">
-        <v>0.0257</v>
+        <v>0.0251</v>
       </c>
     </row>
     <row r="87">
@@ -2262,481 +2262,481 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>10121</v>
+        <v>11009</v>
       </c>
       <c r="C87" t="n">
-        <v>1053</v>
+        <v>1096</v>
       </c>
       <c r="D87" t="n">
         <v>0.1</v>
       </c>
       <c r="E87" t="n">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F87" t="n">
-        <v>0.0178</v>
+        <v>0.0181</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>刚果（金）</t>
+          <t>挪威</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>9811</v>
+        <v>10395</v>
       </c>
       <c r="C88" t="n">
-        <v>8920</v>
+        <v>9150</v>
       </c>
       <c r="D88" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="E88" t="n">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F88" t="n">
-        <v>0.0256</v>
+        <v>0.0254</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>马来西亚</t>
+          <t>刚果（金）</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>9257</v>
+        <v>9842</v>
       </c>
       <c r="C89" t="n">
-        <v>8949</v>
+        <v>8953</v>
       </c>
       <c r="D89" t="n">
-        <v>0.97</v>
+        <v>0.91</v>
       </c>
       <c r="E89" t="n">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0135</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>几内亚</t>
+          <t>马来西亚</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>8932</v>
+        <v>9274</v>
       </c>
       <c r="C90" t="n">
-        <v>7648</v>
+        <v>8965</v>
       </c>
       <c r="D90" t="n">
-        <v>0.86</v>
+        <v>0.97</v>
       </c>
       <c r="E90" t="n">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0059</v>
+        <v>0.0135</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>加蓬</t>
+          <t>几内亚</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>8388</v>
+        <v>9076</v>
       </c>
       <c r="C91" t="n">
-        <v>6734</v>
+        <v>7928</v>
       </c>
       <c r="D91" t="n">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="E91" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F91" t="n">
-        <v>0.0063</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>塔吉克斯坦</t>
+          <t>希腊</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>8241</v>
+        <v>8819</v>
       </c>
       <c r="C92" t="n">
-        <v>7040</v>
+        <v>1347</v>
       </c>
       <c r="D92" t="n">
-        <v>0.85</v>
+        <v>0.15</v>
       </c>
       <c r="E92" t="n">
-        <v>66</v>
+        <v>242</v>
       </c>
       <c r="F92" t="n">
-        <v>0.008</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>希腊</t>
+          <t>阿尔巴尼亚</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>8138</v>
+        <v>8605</v>
       </c>
       <c r="C93" t="n">
-        <v>1347</v>
+        <v>4413</v>
       </c>
       <c r="D93" t="n">
-        <v>0.17</v>
+        <v>0.51</v>
       </c>
       <c r="E93" t="n">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0292</v>
+        <v>0.0295</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>阿尔巴尼亚</t>
+          <t>加蓬</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>8119</v>
+        <v>8409</v>
       </c>
       <c r="C94" t="n">
-        <v>4096</v>
+        <v>6959</v>
       </c>
       <c r="D94" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="E94" t="n">
-        <v>240</v>
+        <v>53</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0296</v>
+        <v>0.0063</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>海地</t>
+          <t>塔吉克斯坦</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>8050</v>
+        <v>8346</v>
       </c>
       <c r="C95" t="n">
-        <v>5447</v>
+        <v>7142</v>
       </c>
       <c r="D95" t="n">
-        <v>0.68</v>
+        <v>0.86</v>
       </c>
       <c r="E95" t="n">
-        <v>196</v>
+        <v>67</v>
       </c>
       <c r="F95" t="n">
-        <v>0.0243</v>
+        <v>0.008</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>芬兰</t>
+          <t>克罗地亚</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>7906</v>
+        <v>8311</v>
       </c>
       <c r="C96" t="n">
-        <v>7100</v>
+        <v>5926</v>
       </c>
       <c r="D96" t="n">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="E96" t="n">
-        <v>334</v>
+        <v>173</v>
       </c>
       <c r="F96" t="n">
-        <v>0.0422</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>克罗地亚</t>
+          <t>海地</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>7900</v>
+        <v>8110</v>
       </c>
       <c r="C97" t="n">
-        <v>5678</v>
+        <v>5624</v>
       </c>
       <c r="D97" t="n">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0215</v>
+        <v>0.0242</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>卢森堡</t>
+          <t>芬兰</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>7704</v>
+        <v>7938</v>
       </c>
       <c r="C98" t="n">
-        <v>6969</v>
+        <v>7100</v>
       </c>
       <c r="D98" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="E98" t="n">
-        <v>124</v>
+        <v>335</v>
       </c>
       <c r="F98" t="n">
-        <v>0.0161</v>
+        <v>0.0422</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>毛里塔尼亚</t>
+          <t>卢森堡</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>6885</v>
+        <v>7775</v>
       </c>
       <c r="C99" t="n">
-        <v>6186</v>
+        <v>6969</v>
       </c>
       <c r="D99" t="n">
         <v>0.9</v>
       </c>
       <c r="E99" t="n">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0229</v>
+        <v>0.0159</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>马尔代夫</t>
+          <t>毛里塔尼亚</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>6564</v>
+        <v>6928</v>
       </c>
       <c r="C100" t="n">
-        <v>4012</v>
+        <v>6282</v>
       </c>
       <c r="D100" t="n">
-        <v>0.61</v>
+        <v>0.91</v>
       </c>
       <c r="E100" t="n">
-        <v>26</v>
+        <v>158</v>
       </c>
       <c r="F100" t="n">
-        <v>0.004</v>
+        <v>0.0228</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>津巴布韦</t>
+          <t>马尔代夫</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>5815</v>
+        <v>6912</v>
       </c>
       <c r="C101" t="n">
-        <v>4587</v>
+        <v>4297</v>
       </c>
       <c r="D101" t="n">
-        <v>0.79</v>
+        <v>0.62</v>
       </c>
       <c r="E101" t="n">
-        <v>152</v>
+        <v>27</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0261</v>
+        <v>0.0039</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>吉布提</t>
+          <t>津巴布韦</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>5382</v>
+        <v>6070</v>
       </c>
       <c r="C102" t="n">
-        <v>5233</v>
+        <v>4950</v>
       </c>
       <c r="D102" t="n">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="E102" t="n">
-        <v>60</v>
+        <v>155</v>
       </c>
       <c r="F102" t="n">
-        <v>0.0111</v>
+        <v>0.0255</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>马拉维</t>
+          <t>纳米比亚</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>5322</v>
+        <v>6030</v>
       </c>
       <c r="C103" t="n">
-        <v>2929</v>
+        <v>2563</v>
       </c>
       <c r="D103" t="n">
-        <v>0.55</v>
+        <v>0.43</v>
       </c>
       <c r="E103" t="n">
-        <v>166</v>
+        <v>56</v>
       </c>
       <c r="F103" t="n">
-        <v>0.0312</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>纳米比亚</t>
+          <t>马拉维</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>5227</v>
+        <v>5419</v>
       </c>
       <c r="C104" t="n">
-        <v>2457</v>
+        <v>3059</v>
       </c>
       <c r="D104" t="n">
-        <v>0.47</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>42</v>
+        <v>169</v>
       </c>
       <c r="F104" t="n">
-        <v>0.008</v>
+        <v>0.0312</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>匈牙利</t>
+          <t>吉布提</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>5133</v>
+        <v>5383</v>
       </c>
       <c r="C105" t="n">
-        <v>3692</v>
+        <v>5273</v>
       </c>
       <c r="D105" t="n">
-        <v>0.72</v>
+        <v>0.98</v>
       </c>
       <c r="E105" t="n">
-        <v>611</v>
+        <v>60</v>
       </c>
       <c r="F105" t="n">
-        <v>0.119</v>
+        <v>0.0111</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>赤道几内亚</t>
+          <t>匈牙利</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4926</v>
+        <v>5191</v>
       </c>
       <c r="C106" t="n">
-        <v>2713</v>
+        <v>3695</v>
       </c>
       <c r="D106" t="n">
-        <v>0.55</v>
+        <v>0.71</v>
       </c>
       <c r="E106" t="n">
-        <v>83</v>
+        <v>613</v>
       </c>
       <c r="F106" t="n">
-        <v>0.0168</v>
+        <v>0.1181</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>中非共和国</t>
+          <t>赤道几内亚</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>4679</v>
+        <v>4926</v>
       </c>
       <c r="C107" t="n">
-        <v>1755</v>
+        <v>3795</v>
       </c>
       <c r="D107" t="n">
-        <v>0.38</v>
+        <v>0.77</v>
       </c>
       <c r="E107" t="n">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="F107" t="n">
-        <v>0.013</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>尼加拉瓜</t>
+          <t>中非共和国</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>4311</v>
+        <v>4679</v>
       </c>
       <c r="C108" t="n">
-        <v>2913</v>
+        <v>1755</v>
       </c>
       <c r="D108" t="n">
-        <v>0.68</v>
+        <v>0.38</v>
       </c>
       <c r="E108" t="n">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="F108" t="n">
-        <v>0.0309</v>
+        <v>0.013</v>
       </c>
     </row>
     <row r="109">
@@ -2746,327 +2746,327 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>4277</v>
+        <v>4343</v>
       </c>
       <c r="C109" t="n">
-        <v>3281</v>
+        <v>3356</v>
       </c>
       <c r="D109" t="n">
         <v>0.77</v>
       </c>
       <c r="E109" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F109" t="n">
-        <v>0.0192</v>
+        <v>0.0193</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>斯威士兰</t>
+          <t>尼加拉瓜</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>4128</v>
+        <v>4311</v>
       </c>
       <c r="C110" t="n">
-        <v>2682</v>
+        <v>2913</v>
       </c>
       <c r="D110" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="E110" t="n">
-        <v>81</v>
+        <v>133</v>
       </c>
       <c r="F110" t="n">
-        <v>0.0196</v>
+        <v>0.0309</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>刚果（布）</t>
+          <t>斯威士兰</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>3850</v>
+        <v>4304</v>
       </c>
       <c r="C111" t="n">
-        <v>1625</v>
+        <v>2936</v>
       </c>
       <c r="D111" t="n">
-        <v>0.42</v>
+        <v>0.68</v>
       </c>
       <c r="E111" t="n">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F111" t="n">
-        <v>0.02</v>
+        <v>0.0197</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>古巴</t>
+          <t>刚果（布）</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>3582</v>
+        <v>3979</v>
       </c>
       <c r="C112" t="n">
-        <v>2951</v>
+        <v>1742</v>
       </c>
       <c r="D112" t="n">
-        <v>0.82</v>
+        <v>0.44</v>
       </c>
       <c r="E112" t="n">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="F112" t="n">
-        <v>0.0248</v>
+        <v>0.0196</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>苏里南</t>
+          <t>古巴</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3460</v>
+        <v>3682</v>
       </c>
       <c r="C113" t="n">
-        <v>2498</v>
+        <v>3044</v>
       </c>
       <c r="D113" t="n">
-        <v>0.72</v>
+        <v>0.83</v>
       </c>
       <c r="E113" t="n">
-        <v>56</v>
+        <v>91</v>
       </c>
       <c r="F113" t="n">
-        <v>0.0162</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>佛得角</t>
+          <t>苏里南</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>3412</v>
+        <v>3607</v>
       </c>
       <c r="C114" t="n">
-        <v>2498</v>
+        <v>2688</v>
       </c>
       <c r="D114" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="E114" t="n">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F114" t="n">
-        <v>0.0108</v>
+        <v>0.0161</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>泰国</t>
+          <t>佛得角</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>3390</v>
+        <v>3532</v>
       </c>
       <c r="C115" t="n">
-        <v>3220</v>
+        <v>2599</v>
       </c>
       <c r="D115" t="n">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="E115" t="n">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="F115" t="n">
-        <v>0.0171</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>斯洛伐克</t>
+          <t>莫桑比克</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3316</v>
+        <v>3440</v>
       </c>
       <c r="C116" t="n">
-        <v>2147</v>
+        <v>1661</v>
       </c>
       <c r="D116" t="n">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="E116" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F116" t="n">
-        <v>0.01</v>
+        <v>0.0061</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>索马里</t>
+          <t>斯洛伐克</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>3265</v>
+        <v>3424</v>
       </c>
       <c r="C117" t="n">
-        <v>2396</v>
+        <v>2153</v>
       </c>
       <c r="D117" t="n">
-        <v>0.73</v>
+        <v>0.63</v>
       </c>
       <c r="E117" t="n">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="F117" t="n">
-        <v>0.0285</v>
+        <v>0.009599999999999999</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>莫桑比克</t>
+          <t>泰国</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>3195</v>
+        <v>3397</v>
       </c>
       <c r="C118" t="n">
-        <v>1406</v>
+        <v>3222</v>
       </c>
       <c r="D118" t="n">
-        <v>0.44</v>
+        <v>0.95</v>
       </c>
       <c r="E118" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="F118" t="n">
-        <v>0.0063</v>
+        <v>0.0171</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>斯里兰卡</t>
+          <t>卢旺达</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>2947</v>
+        <v>3306</v>
       </c>
       <c r="C119" t="n">
-        <v>2798</v>
+        <v>1785</v>
       </c>
       <c r="D119" t="n">
-        <v>0.95</v>
+        <v>0.54</v>
       </c>
       <c r="E119" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F119" t="n">
-        <v>0.0037</v>
+        <v>0.0042</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>卢旺达</t>
+          <t>索马里</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2780</v>
+        <v>3269</v>
       </c>
       <c r="C120" t="n">
-        <v>1712</v>
+        <v>2396</v>
       </c>
       <c r="D120" t="n">
-        <v>0.62</v>
+        <v>0.73</v>
       </c>
       <c r="E120" t="n">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="F120" t="n">
-        <v>0.004</v>
+        <v>0.0284</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>马里</t>
+          <t>斯里兰卡</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>2688</v>
+        <v>2959</v>
       </c>
       <c r="C121" t="n">
-        <v>2007</v>
+        <v>2811</v>
       </c>
       <c r="D121" t="n">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="E121" t="n">
-        <v>125</v>
+        <v>12</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0465</v>
+        <v>0.0041</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>斯洛文尼亚</t>
+          <t>突尼斯</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>2617</v>
+        <v>2893</v>
       </c>
       <c r="C122" t="n">
-        <v>2079</v>
+        <v>1454</v>
       </c>
       <c r="D122" t="n">
-        <v>0.79</v>
+        <v>0.5</v>
       </c>
       <c r="E122" t="n">
-        <v>131</v>
+        <v>71</v>
       </c>
       <c r="F122" t="n">
-        <v>0.0501</v>
+        <v>0.0245</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>突尼斯</t>
+          <t>马里</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>2607</v>
+        <v>2708</v>
       </c>
       <c r="C123" t="n">
-        <v>1420</v>
+        <v>2025</v>
       </c>
       <c r="D123" t="n">
-        <v>0.54</v>
+        <v>0.75</v>
       </c>
       <c r="E123" t="n">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="F123" t="n">
-        <v>0.0245</v>
+        <v>0.0462</v>
       </c>
     </row>
     <row r="124">
@@ -3076,129 +3076,129 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>2594</v>
+        <v>2673</v>
       </c>
       <c r="C124" t="n">
         <v>1766</v>
       </c>
       <c r="D124" t="n">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="E124" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F124" t="n">
-        <v>0.0324</v>
+        <v>0.0318</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>冈比亚</t>
+          <t>斯洛文尼亚</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>2437</v>
+        <v>2665</v>
       </c>
       <c r="C125" t="n">
-        <v>455</v>
+        <v>2122</v>
       </c>
       <c r="D125" t="n">
-        <v>0.19</v>
+        <v>0.8</v>
       </c>
       <c r="E125" t="n">
-        <v>84</v>
+        <v>133</v>
       </c>
       <c r="F125" t="n">
-        <v>0.0345</v>
+        <v>0.0499</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>爱沙尼亚</t>
+          <t>冈比亚</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2265</v>
+        <v>2437</v>
       </c>
       <c r="C126" t="n">
-        <v>2024</v>
+        <v>455</v>
       </c>
       <c r="D126" t="n">
-        <v>0.89</v>
+        <v>0.19</v>
       </c>
       <c r="E126" t="n">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0278</v>
+        <v>0.0345</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>几内亚比绍</t>
+          <t>乌干达</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>2149</v>
+        <v>2362</v>
       </c>
       <c r="C127" t="n">
-        <v>1015</v>
+        <v>1248</v>
       </c>
       <c r="D127" t="n">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="E127" t="n">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="F127" t="n">
-        <v>0.0154</v>
+        <v>0.009299999999999999</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>贝宁</t>
+          <t>叙利亚</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>2095</v>
+        <v>2293</v>
       </c>
       <c r="C128" t="n">
-        <v>1705</v>
+        <v>519</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="E128" t="n">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0186</v>
+        <v>0.0401</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>叙利亚</t>
+          <t>爱沙尼亚</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>2073</v>
+        <v>2275</v>
       </c>
       <c r="C129" t="n">
-        <v>475</v>
+        <v>2025</v>
       </c>
       <c r="D129" t="n">
-        <v>0.23</v>
+        <v>0.89</v>
       </c>
       <c r="E129" t="n">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="F129" t="n">
-        <v>0.04</v>
+        <v>0.0281</v>
       </c>
     </row>
     <row r="130">
@@ -3208,261 +3208,261 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>2068</v>
+        <v>2222</v>
       </c>
       <c r="C130" t="n">
-        <v>804</v>
+        <v>877</v>
       </c>
       <c r="D130" t="n">
         <v>0.39</v>
       </c>
       <c r="E130" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0455</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>冰岛</t>
+          <t>几内亚比绍</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>2058</v>
+        <v>2149</v>
       </c>
       <c r="C131" t="n">
-        <v>1936</v>
+        <v>1015</v>
       </c>
       <c r="D131" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="E131" t="n">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="F131" t="n">
-        <v>0.0049</v>
+        <v>0.0154</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>塞拉利昂</t>
+          <t>贝宁</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1972</v>
+        <v>2115</v>
       </c>
       <c r="C132" t="n">
-        <v>1542</v>
+        <v>1705</v>
       </c>
       <c r="D132" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="F132" t="n">
-        <v>0.035</v>
+        <v>0.0184</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>也门</t>
+          <t>冰岛</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>1906</v>
+        <v>2073</v>
       </c>
       <c r="C133" t="n">
-        <v>1058</v>
+        <v>1946</v>
       </c>
       <c r="D133" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E133" t="n">
-        <v>542</v>
+        <v>10</v>
       </c>
       <c r="F133" t="n">
-        <v>0.2844</v>
+        <v>0.0048</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>乌干达</t>
+          <t>塞拉利昂</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1848</v>
+        <v>1997</v>
       </c>
       <c r="C134" t="n">
-        <v>1199</v>
+        <v>1557</v>
       </c>
       <c r="D134" t="n">
-        <v>0.65</v>
+        <v>0.78</v>
       </c>
       <c r="E134" t="n">
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="F134" t="n">
-        <v>0.0103</v>
+        <v>0.0346</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>巴哈马</t>
+          <t>也门</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1703</v>
+        <v>1916</v>
       </c>
       <c r="C135" t="n">
-        <v>221</v>
+        <v>1090</v>
       </c>
       <c r="D135" t="n">
-        <v>0.13</v>
+        <v>0.57</v>
       </c>
       <c r="E135" t="n">
-        <v>27</v>
+        <v>555</v>
       </c>
       <c r="F135" t="n">
-        <v>0.0159</v>
+        <v>0.2897</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>新西兰</t>
+          <t>巴哈马</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>1671</v>
+        <v>1765</v>
       </c>
       <c r="C136" t="n">
-        <v>1538</v>
+        <v>227</v>
       </c>
       <c r="D136" t="n">
-        <v>0.92</v>
+        <v>0.13</v>
       </c>
       <c r="E136" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0132</v>
+        <v>0.0164</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>马耳他</t>
+          <t>新西兰</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>1577</v>
+        <v>1683</v>
       </c>
       <c r="C137" t="n">
-        <v>901</v>
+        <v>1538</v>
       </c>
       <c r="D137" t="n">
-        <v>0.57</v>
+        <v>0.91</v>
       </c>
       <c r="E137" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="F137" t="n">
-        <v>0.0063</v>
+        <v>0.0131</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>约旦</t>
+          <t>马耳他</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>1532</v>
+        <v>1667</v>
       </c>
       <c r="C138" t="n">
-        <v>1262</v>
+        <v>977</v>
       </c>
       <c r="D138" t="n">
-        <v>0.82</v>
+        <v>0.59</v>
       </c>
       <c r="E138" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F138" t="n">
-        <v>0.0072</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>乌拉圭</t>
+          <t>约旦</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1516</v>
+        <v>1639</v>
       </c>
       <c r="C139" t="n">
-        <v>1249</v>
+        <v>1335</v>
       </c>
       <c r="D139" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E139" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0277</v>
+        <v>0.008500000000000001</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>塞浦路斯</t>
+          <t>博茨瓦纳</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1406</v>
+        <v>1562</v>
       </c>
       <c r="C140" t="n">
-        <v>878</v>
+        <v>199</v>
       </c>
       <c r="D140" t="n">
-        <v>0.62</v>
+        <v>0.13</v>
       </c>
       <c r="E140" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F140" t="n">
-        <v>0.0142</v>
+        <v>0.0019</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>格鲁吉亚</t>
+          <t>乌拉圭</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1394</v>
+        <v>1533</v>
       </c>
       <c r="C141" t="n">
-        <v>1132</v>
+        <v>1295</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="E141" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="F141" t="n">
-        <v>0.0122</v>
+        <v>0.0274</v>
       </c>
     </row>
     <row r="142">
@@ -3472,107 +3472,107 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1346</v>
+        <v>1529</v>
       </c>
       <c r="C142" t="n">
-        <v>788</v>
+        <v>819</v>
       </c>
       <c r="D142" t="n">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="E142" t="n">
         <v>16</v>
       </c>
       <c r="F142" t="n">
-        <v>0.0119</v>
+        <v>0.0105</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>拉脱维亚</t>
+          <t>塞浦路斯</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1333</v>
+        <v>1451</v>
       </c>
       <c r="C143" t="n">
-        <v>1093</v>
+        <v>878</v>
       </c>
       <c r="D143" t="n">
-        <v>0.82</v>
+        <v>0.61</v>
       </c>
       <c r="E143" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0248</v>
+        <v>0.0138</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>博茨瓦纳</t>
+          <t>格鲁吉亚</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1308</v>
+        <v>1421</v>
       </c>
       <c r="C144" t="n">
-        <v>136</v>
+        <v>1137</v>
       </c>
       <c r="D144" t="n">
-        <v>0.1</v>
+        <v>0.8</v>
       </c>
       <c r="E144" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="F144" t="n">
-        <v>0.0023</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>布基纳法索</t>
+          <t>拉脱维亚</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1297</v>
+        <v>1337</v>
       </c>
       <c r="C145" t="n">
-        <v>1034</v>
+        <v>1093</v>
       </c>
       <c r="D145" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
       <c r="E145" t="n">
-        <v>55</v>
+        <v>33</v>
       </c>
       <c r="F145" t="n">
-        <v>0.0424</v>
+        <v>0.0247</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>利比里亚</t>
+          <t>布基纳法索</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1285</v>
+        <v>1328</v>
       </c>
       <c r="C146" t="n">
-        <v>803</v>
+        <v>1050</v>
       </c>
       <c r="D146" t="n">
-        <v>0.62</v>
+        <v>0.79</v>
       </c>
       <c r="E146" t="n">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0638</v>
+        <v>0.0414</v>
       </c>
     </row>
     <row r="147">
@@ -3582,409 +3582,409 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1239</v>
+        <v>1295</v>
       </c>
       <c r="C147" t="n">
-        <v>891</v>
+        <v>914</v>
       </c>
       <c r="D147" t="n">
-        <v>0.72</v>
+        <v>0.71</v>
       </c>
       <c r="E147" t="n">
         <v>27</v>
       </c>
       <c r="F147" t="n">
-        <v>0.0218</v>
+        <v>0.0208</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>尼日尔</t>
+          <t>利比里亚</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>1172</v>
+        <v>1290</v>
       </c>
       <c r="C148" t="n">
-        <v>1083</v>
+        <v>819</v>
       </c>
       <c r="D148" t="n">
-        <v>0.92</v>
+        <v>0.63</v>
       </c>
       <c r="E148" t="n">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="F148" t="n">
-        <v>0.0589</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>安道尔</t>
+          <t>尼日尔</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1045</v>
+        <v>1172</v>
       </c>
       <c r="C149" t="n">
-        <v>875</v>
+        <v>1084</v>
       </c>
       <c r="D149" t="n">
-        <v>0.84</v>
+        <v>0.92</v>
       </c>
       <c r="E149" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="F149" t="n">
-        <v>0.0507</v>
+        <v>0.0589</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>莱索托</t>
+          <t>特立尼达和多巴哥</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>1015</v>
+        <v>1099</v>
       </c>
       <c r="C150" t="n">
-        <v>472</v>
+        <v>165</v>
       </c>
       <c r="D150" t="n">
-        <v>0.47</v>
+        <v>0.15</v>
       </c>
       <c r="E150" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="F150" t="n">
-        <v>0.0296</v>
+        <v>0.0136</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>越南</t>
+          <t>安道尔</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>1014</v>
+        <v>1060</v>
       </c>
       <c r="C151" t="n">
-        <v>563</v>
+        <v>877</v>
       </c>
       <c r="D151" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="E151" t="n">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0256</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>乍得</t>
+          <t>圭亚那</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>981</v>
+        <v>1029</v>
       </c>
       <c r="C152" t="n">
-        <v>869</v>
+        <v>510</v>
       </c>
       <c r="D152" t="n">
-        <v>0.89</v>
+        <v>0.5</v>
       </c>
       <c r="E152" t="n">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="F152" t="n">
-        <v>0.0775</v>
+        <v>0.0301</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>特立尼达和多巴哥</t>
+          <t>越南</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>899</v>
+        <v>1022</v>
       </c>
       <c r="C153" t="n">
-        <v>165</v>
+        <v>587</v>
       </c>
       <c r="D153" t="n">
-        <v>0.18</v>
+        <v>0.57</v>
       </c>
       <c r="E153" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0145</v>
+        <v>0.0264</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>圭亚那</t>
+          <t>莱索托</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>881</v>
+        <v>1015</v>
       </c>
       <c r="C154" t="n">
-        <v>433</v>
+        <v>472</v>
       </c>
       <c r="D154" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="E154" t="n">
         <v>30</v>
       </c>
       <c r="F154" t="n">
-        <v>0.0341</v>
+        <v>0.0296</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>钻石号邮轮</t>
+          <t>乍得</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>712</v>
+        <v>987</v>
       </c>
       <c r="C155" t="n">
-        <v>651</v>
+        <v>870</v>
       </c>
       <c r="D155" t="n">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="E155" t="n">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="F155" t="n">
-        <v>0.0183</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>圣马力诺</t>
+          <t>伯利兹</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>704</v>
+        <v>713</v>
       </c>
       <c r="C156" t="n">
-        <v>657</v>
+        <v>45</v>
       </c>
       <c r="D156" t="n">
-        <v>0.93</v>
+        <v>0.06</v>
       </c>
       <c r="E156" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F156" t="n">
-        <v>0.0597</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>伯利兹</t>
+          <t>钻石号邮轮</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>648</v>
+        <v>712</v>
       </c>
       <c r="C157" t="n">
-        <v>43</v>
+        <v>651</v>
       </c>
       <c r="D157" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="E157" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="F157" t="n">
-        <v>0.0077</v>
+        <v>0.0183</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>坦桑尼亚</t>
+          <t>圣马力诺</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>509</v>
+        <v>704</v>
       </c>
       <c r="C158" t="n">
-        <v>183</v>
+        <v>657</v>
       </c>
       <c r="D158" t="n">
-        <v>0.36</v>
+        <v>0.93</v>
       </c>
       <c r="E158" t="n">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0413</v>
+        <v>0.0597</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>缅甸</t>
+          <t>坦桑尼亚</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>441</v>
+        <v>509</v>
       </c>
       <c r="C159" t="n">
-        <v>338</v>
+        <v>183</v>
       </c>
       <c r="D159" t="n">
-        <v>0.77</v>
+        <v>0.36</v>
       </c>
       <c r="E159" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F159" t="n">
-        <v>0.0136</v>
+        <v>0.0413</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>布隆迪</t>
+          <t>缅甸</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>426</v>
+        <v>474</v>
       </c>
       <c r="C160" t="n">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="D160" t="n">
-        <v>0.79</v>
+        <v>0.72</v>
       </c>
       <c r="E160" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F160" t="n">
-        <v>0.0023</v>
+        <v>0.0127</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>科摩罗</t>
+          <t>布隆迪</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>417</v>
+        <v>430</v>
       </c>
       <c r="C161" t="n">
-        <v>396</v>
+        <v>336</v>
       </c>
       <c r="D161" t="n">
-        <v>0.95</v>
+        <v>0.78</v>
       </c>
       <c r="E161" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.0168</v>
+        <v>0.0023</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>巴布亚新几内亚</t>
+          <t>科摩罗</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>361</v>
+        <v>417</v>
       </c>
       <c r="C162" t="n">
-        <v>198</v>
+        <v>396</v>
       </c>
       <c r="D162" t="n">
-        <v>0.55</v>
+        <v>0.95</v>
       </c>
       <c r="E162" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0111</v>
+        <v>0.0168</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>毛里求斯</t>
+          <t>巴布亚新几内亚</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>346</v>
+        <v>401</v>
       </c>
       <c r="C163" t="n">
-        <v>334</v>
+        <v>232</v>
       </c>
       <c r="D163" t="n">
-        <v>0.97</v>
+        <v>0.58</v>
       </c>
       <c r="E163" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F163" t="n">
-        <v>0.0289</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>厄立特里亚</t>
+          <t>毛里求斯</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="C164" t="n">
-        <v>274</v>
+        <v>335</v>
       </c>
       <c r="D164" t="n">
-        <v>0.9</v>
+        <v>0.97</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>0.0289</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>蒙古</t>
+          <t>厄立特里亚</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="C165" t="n">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="D165" t="n">
-        <v>0.97</v>
+        <v>0.9</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
@@ -3996,17 +3996,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>柬埔寨</t>
+          <t>蒙古</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="C166" t="n">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="D166" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -4018,45 +4018,45 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>巴巴多斯</t>
+          <t>柬埔寨</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>157</v>
+        <v>273</v>
       </c>
       <c r="C167" t="n">
-        <v>124</v>
+        <v>263</v>
       </c>
       <c r="D167" t="n">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="E167" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>0.0446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>摩纳哥</t>
+          <t>巴巴多斯</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C168" t="n">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="D168" t="n">
-        <v>0.75</v>
+        <v>0.82</v>
       </c>
       <c r="E168" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F168" t="n">
-        <v>0.026</v>
+        <v>0.0435</v>
       </c>
     </row>
     <row r="169">
@@ -4066,13 +4066,13 @@
         </is>
       </c>
       <c r="B169" t="n">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C169" t="n">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D169" t="n">
-        <v>0.71</v>
+        <v>0.74</v>
       </c>
       <c r="E169" t="n">
         <v>0</v>
@@ -4084,177 +4084,177 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>文莱</t>
+          <t>摩纳哥</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="C170" t="n">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D170" t="n">
-        <v>0.97</v>
+        <v>0.75</v>
       </c>
       <c r="E170" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F170" t="n">
-        <v>0.021</v>
+        <v>0.026</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>塞舌尔</t>
+          <t>文莱</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="C171" t="n">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="D171" t="n">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>0.021</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>列支敦士登公国</t>
+          <t>塞舌尔</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>99</v>
+        <v>132</v>
       </c>
       <c r="C172" t="n">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="D172" t="n">
-        <v>0.89</v>
+        <v>0.95</v>
       </c>
       <c r="E172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.0101</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>安提瓜和巴布达</t>
+          <t>列支敦士登公国</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C173" t="n">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D173" t="n">
-        <v>0.95</v>
+        <v>0.9</v>
       </c>
       <c r="E173" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.0319</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>圣文森特和格林纳丁斯</t>
+          <t>安提瓜和巴布达</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="C174" t="n">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="D174" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>马提尼克岛</t>
+          <t>圣文森特和格林纳丁斯</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="C175" t="n">
+        <v>56</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="E175" t="n">
         <v>0</v>
       </c>
-      <c r="D175" t="n">
+      <c r="F175" t="n">
         <v>0</v>
-      </c>
-      <c r="E175" t="n">
-        <v>1</v>
-      </c>
-      <c r="F175" t="n">
-        <v>0.027</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>斐济</t>
+          <t>马提尼克岛</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="C176" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="E176" t="n">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.0357</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>圣卢西亚</t>
+          <t>斐济</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C177" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D177" t="n">
-        <v>0.96</v>
+        <v>0.82</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>0.0357</v>
       </c>
     </row>
     <row r="178">
@@ -4282,17 +4282,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>格林纳达</t>
+          <t>圣卢西亚</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C179" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D179" t="n">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="E179" t="n">
         <v>0</v>
@@ -4304,17 +4304,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>老挝</t>
+          <t>格林纳达</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C180" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D180" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
@@ -4326,17 +4326,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>多米尼克</t>
+          <t>老挝</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C181" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D181" t="n">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
@@ -4348,17 +4348,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>圣基茨和尼维斯</t>
+          <t>多米尼克</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C182" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D182" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E182" t="n">
         <v>0</v>
@@ -4370,14 +4370,14 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>梵蒂冈</t>
+          <t>圣基茨和尼维斯</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C183" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D183" t="n">
         <v>1</v>
@@ -4386,6 +4386,28 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>梵蒂冈</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>12</v>
+      </c>
+      <c r="C184" t="n">
+        <v>12</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
         <v>0</v>
       </c>
     </row>
